--- a/Table.xlsx
+++ b/Table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>Variável dependente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>MQO</t>
   </si>
@@ -35,36 +32,85 @@
     <t>RQ</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Taxa de crescimento real do PIB </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>per capita</t>
-    </r>
-  </si>
-  <si>
     <t>0.0002***</t>
   </si>
   <si>
     <t>0.0002*</t>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t>1.0316***</t>
+  </si>
+  <si>
+    <t>1.0180***</t>
+  </si>
+  <si>
+    <t>1.0454***</t>
+  </si>
+  <si>
+    <t>1.0625***</t>
+  </si>
+  <si>
+    <t>1.0709***</t>
+  </si>
+  <si>
+    <t>Variável dependente: Taxa de crescimento real do PIB per capita</t>
+  </si>
+  <si>
+    <t>Intensidade Financeira</t>
+  </si>
+  <si>
+    <t>Comércio Internacional</t>
+  </si>
+  <si>
+    <t>Taxa de Inflação</t>
+  </si>
+  <si>
+    <t>Anos de escolaridade</t>
+  </si>
+  <si>
+    <t>0.995***</t>
+  </si>
+  <si>
+    <t>0.5361**</t>
+  </si>
+  <si>
+    <t>1.0166***</t>
+  </si>
+  <si>
+    <t>0.0007**</t>
+  </si>
+  <si>
+    <t>1.0621***</t>
+  </si>
+  <si>
+    <t>1.0628***</t>
+  </si>
+  <si>
+    <t>1.0354***</t>
+  </si>
+  <si>
+    <t>1.0353***</t>
+  </si>
+  <si>
+    <t>0.0005**</t>
+  </si>
+  <si>
+    <t>1.0457***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,21 +121,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -152,11 +183,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -170,16 +198,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,113 +545,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A15" sqref="A15:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4.579E-5</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-4.0000000000000003E-5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-3.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14">
+        <v>7.7899999999999996E-5</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
-        <v>7.7910000000000005E-5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7">
-        <f>0.00005675</f>
-        <v>5.6749999999999997E-5</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E18" s="14">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="F18" s="14">
         <v>-2.2529999999999999E-5</v>
       </c>
-      <c r="G3" s="7">
-        <f>0.00003269</f>
+      <c r="G18" s="14">
         <v>3.269E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="9">
-        <v>5.8400000000000003E-5</v>
-      </c>
-      <c r="C4" s="10">
-        <f>0.0000714</f>
-        <v>7.1400000000000001E-5</v>
-      </c>
-      <c r="D4" s="9">
-        <f>0.0000939</f>
-        <v>9.3900000000000006E-5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>8.2700000000000004E-5</v>
-      </c>
-      <c r="F4" s="9">
-        <v>7.47E-5</v>
-      </c>
-      <c r="G4" s="9">
-        <v>5.6799999999999998E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="14">
+        <v>4.7759999999999997E-5</v>
+      </c>
+      <c r="C19" s="14">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="D19" s="14">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4.18E-5</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1.849E-6</v>
+      </c>
+      <c r="G19" s="14">
+        <v>2.374E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="14">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D20" s="14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="G20" s="14">
+        <v>-6.5939999999999995E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.1225</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-0.2072</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
